--- a/Tester Results/TEST_SEX_AVG_ACROSS_DATES.xlsx
+++ b/Tester Results/TEST_SEX_AVG_ACROSS_DATES.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2204</v>
+        <v>2237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005177618545478217</v>
+        <v>0.004003975727820121</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5116598079561042</v>
+        <v>-0.5342935528120714</v>
       </c>
       <c r="E2" t="n">
-        <v>4717.336435185185</v>
+        <v>4744.017175925927</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2636.5</v>
+        <v>2664.166666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>9.470275994163439e-08</v>
+        <v>4.137684607663376e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8082990397805213</v>
+        <v>-0.8272748056698674</v>
       </c>
       <c r="E3" t="n">
-        <v>67.60028600823044</v>
+        <v>68.65649074074075</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2647.5</v>
+        <v>2670.5</v>
       </c>
       <c r="C4" t="n">
-        <v>3.323546182342756e-08</v>
+        <v>1.797490300392851e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.815843621399177</v>
+        <v>-0.8316186556927297</v>
       </c>
       <c r="E4" t="n">
-        <v>61.58129732510289</v>
+        <v>62.77050514403293</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2505.833333333333</v>
+        <v>2536.166666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>2.322686731585555e-06</v>
+        <v>1.500044482234237e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.718678555098308</v>
+        <v>-0.7394833104709648</v>
       </c>
       <c r="E5" t="n">
-        <v>23.8653549382716</v>
+        <v>24.24041563786008</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1531.333333333333</v>
+        <v>1524.166666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.108532274582765</v>
+        <v>0.1217966800848773</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05029721079103796</v>
+        <v>-0.04538180155464108</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.237242798353909</v>
+        <v>-0.07283950617283937</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1283.166666666667</v>
+        <v>1267.666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06852526924462392</v>
+        <v>0.0677074872532334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1199131229995427</v>
+        <v>0.1305441243712849</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6273662551440337</v>
+        <v>-0.4689300411522634</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -651,16 +651,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2637.166666666667</v>
+        <v>2664.166666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>1.027222793661411e-07</v>
+        <v>4.42417181142214e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8087562871513491</v>
+        <v>-0.8272748056698674</v>
       </c>
       <c r="E8" t="n">
-        <v>68.00977366255145</v>
+        <v>69.0948559670782</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1104.5</v>
+        <v>1087.666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1549259371573529</v>
+        <v>0.1609399393936459</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2424554183813443</v>
+        <v>0.2540009144947417</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3901234567901256</v>
+        <v>-0.3960905349794251</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>636</v>
+        <v>593.6666666666666</v>
       </c>
       <c r="C10" t="n">
-        <v>6.814324664904044e-07</v>
+        <v>1.550209103029177e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5637860082304527</v>
+        <v>0.5928212162780064</v>
       </c>
       <c r="E10" t="n">
-        <v>-36.6668148148148</v>
+        <v>-38.17580761316872</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
